--- a/Jupyter Exercice/Coordonnees.xlsx
+++ b/Jupyter Exercice/Coordonnees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssm47\Desktop\Git\folium_for_choropleth\Jupyter Exercice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{589BFC9E-1425-4258-872B-3060C448D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3807429-E596-4340-90B3-8D72D6EE08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCEDD0C7-2BD1-40D0-B59D-C636B76AB05C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Code de la région</t>
   </si>
@@ -206,13 +206,67 @@
   </si>
   <si>
     <t>[-12.781272482741205, 45.22500141756748]</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>Centre de région</t>
+  </si>
+  <si>
+    <t>centre_lat</t>
+  </si>
+  <si>
+    <t>centre_lan</t>
+  </si>
+  <si>
+    <t>Void-Vacon</t>
+  </si>
+  <si>
+    <t>Saint-Vincent-Jalmoutiers</t>
+  </si>
+  <si>
+    <t>Cellieu</t>
+  </si>
+  <si>
+    <t>Gergeuil</t>
+  </si>
+  <si>
+    <t>Saint-Caradec</t>
+  </si>
+  <si>
+    <t>Vernou-en-Sologne</t>
+  </si>
+  <si>
+    <t>Vivario</t>
+  </si>
+  <si>
+    <t>Brunoy</t>
+  </si>
+  <si>
+    <t>Lautrec</t>
+  </si>
+  <si>
+    <t>Éclusier-Vaux</t>
+  </si>
+  <si>
+    <t>La Houblonnière</t>
+  </si>
+  <si>
+    <t>Saint-Augustin-des-Bois</t>
+  </si>
+  <si>
+    <t>Entrevennes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +278,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,11 +310,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37679FB-C191-4C2A-8ACD-0B3D6D3A01FC}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,9 +645,12 @@
     <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +663,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>44</v>
       </c>
@@ -609,8 +692,23 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>48.576570862678999</v>
+      </c>
+      <c r="F2">
+        <v>7.7469731004236104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>48.689432332675999</v>
+      </c>
+      <c r="I2">
+        <v>5.6258308307000302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>75</v>
       </c>
@@ -623,8 +721,23 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>44.842056235560896</v>
+      </c>
+      <c r="F3">
+        <v>-0.59219185891760995</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <v>45.2191206587094</v>
+      </c>
+      <c r="I3">
+        <v>0.194470143826832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>84</v>
       </c>
@@ -637,8 +750,23 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>45.763818955032598</v>
+      </c>
+      <c r="F4">
+        <v>4.83719003630587</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>45.521107310886599</v>
+      </c>
+      <c r="I4">
+        <v>4.52778448588868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>27</v>
       </c>
@@ -651,8 +779,23 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>47.3280011325011</v>
+      </c>
+      <c r="F5">
+        <v>5.0438920740044804</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>47.236900151259697</v>
+      </c>
+      <c r="I5">
+        <v>4.8136249879409601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>53</v>
       </c>
@@ -665,8 +808,23 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>48.117366898976002</v>
+      </c>
+      <c r="F6">
+        <v>-1.6769421389588901</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>48.196020013494497</v>
+      </c>
+      <c r="I6">
+        <v>-2.8672187178450801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -679,8 +837,23 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>47.896098667664901</v>
+      </c>
+      <c r="F7">
+        <v>1.9036046344231901</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <v>47.508954097024301</v>
+      </c>
+      <c r="I7">
+        <v>1.6758309937018701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -693,8 +866,23 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>48.856370134672297</v>
+      </c>
+      <c r="F8">
+        <v>2.3504682271764499</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>48.700495846036802</v>
+      </c>
+      <c r="I8">
+        <v>2.50009487600706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>76</v>
       </c>
@@ -707,8 +895,23 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>43.6051161245163</v>
+      </c>
+      <c r="F9">
+        <v>1.44468708375875</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9">
+        <v>43.708151018999096</v>
+      </c>
+      <c r="I9">
+        <v>2.1390774461934501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
@@ -721,8 +924,23 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>50.629229488986901</v>
+      </c>
+      <c r="F10">
+        <v>3.0571974815293501</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>49.958313893485297</v>
+      </c>
+      <c r="I10">
+        <v>2.78753213977518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
@@ -735,8 +953,23 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>49.439784582005998</v>
+      </c>
+      <c r="F11">
+        <v>1.0836184502118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>49.123149473206702</v>
+      </c>
+      <c r="I11">
+        <v>9.9149911738188906E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>52</v>
       </c>
@@ -749,8 +982,23 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>47.224827832945401</v>
+      </c>
+      <c r="F12">
+        <v>-1.55621462738825</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>47.458664820750798</v>
+      </c>
+      <c r="I12">
+        <v>-0.80179314155976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>93</v>
       </c>
@@ -763,8 +1011,23 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>43.315077276865502</v>
+      </c>
+      <c r="F13">
+        <v>5.4019343584939898</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>43.932059740144197</v>
+      </c>
+      <c r="I13">
+        <v>6.0214743595021201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>94</v>
       </c>
@@ -777,8 +1040,23 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>41.922870473899302</v>
+      </c>
+      <c r="F14">
+        <v>8.7041173864117702</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>42.1607345729267</v>
+      </c>
+      <c r="I14">
+        <v>9.11181470219082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -791,8 +1069,23 @@
       <c r="D15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>16.000690456959401</v>
+      </c>
+      <c r="F15">
+        <v>-61.730754640870501</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>16.000690456959401</v>
+      </c>
+      <c r="I15">
+        <v>-61.730754640870501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -805,8 +1098,23 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>14.624497979868201</v>
+      </c>
+      <c r="F16">
+        <v>-61.064181554670597</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>14.624497979868201</v>
+      </c>
+      <c r="I16">
+        <v>-61.064181554670597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -819,8 +1127,23 @@
       <c r="D17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>4.9231969842977996</v>
+      </c>
+      <c r="F17">
+        <v>-52.3148453271764</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>4.9231969842977996</v>
+      </c>
+      <c r="I17">
+        <v>-52.3148453271764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -833,8 +1156,23 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>-20.8857971906552</v>
+      </c>
+      <c r="F18">
+        <v>55.455257981741099</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18">
+        <v>-20.8857971906552</v>
+      </c>
+      <c r="I18">
+        <v>55.455257981741099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -846,6 +1184,21 @@
       </c>
       <c r="D19" t="s">
         <v>57</v>
+      </c>
+      <c r="E19">
+        <v>-12.781272482741199</v>
+      </c>
+      <c r="F19">
+        <v>45.225001417567398</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>-12.781272482741199</v>
+      </c>
+      <c r="I19">
+        <v>45.225001417567398</v>
       </c>
     </row>
   </sheetData>
